--- a/倾向得分匹配_年度统计.xlsx
+++ b/倾向得分匹配_年度统计.xlsx
@@ -494,19 +494,19 @@
         <v>111</v>
       </c>
       <c r="E2" t="n">
-        <v>1.134965661191751</v>
+        <v>1.134434208527111</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4558825768196347</v>
+        <v>0.455877884661925</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1561207995600737</v>
+        <v>0.1574095222632352</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1812240580910136</v>
+        <v>0.184749521947265</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9277721140264169</v>
+        <v>0.9351544332584775</v>
       </c>
     </row>
     <row r="3">
@@ -523,19 +523,19 @@
         <v>111</v>
       </c>
       <c r="E3" t="n">
-        <v>1.136768136423848</v>
+        <v>1.136118914357281</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4558801941349653</v>
+        <v>0.455882018360749</v>
       </c>
       <c r="G3" t="n">
-        <v>0.144045975742338</v>
+        <v>0.1457815837570197</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1720740775059251</v>
+        <v>0.1798919439769675</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9121218378746613</v>
+        <v>0.918037859851653</v>
       </c>
     </row>
     <row r="4">
@@ -552,19 +552,19 @@
         <v>111</v>
       </c>
       <c r="E4" t="n">
-        <v>1.137491769999814</v>
+        <v>1.136682560272896</v>
       </c>
       <c r="F4" t="n">
-        <v>0.45587982776752</v>
+        <v>0.4558875315652311</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1389511058641787</v>
+        <v>0.1415897291679757</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1590187521038061</v>
+        <v>0.1731594211844923</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8971426305061341</v>
+        <v>0.9053366706458894</v>
       </c>
     </row>
     <row r="5">
@@ -581,19 +581,19 @@
         <v>111</v>
       </c>
       <c r="E5" t="n">
-        <v>1.138512788612686</v>
+        <v>1.137462449876291</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4558823638172679</v>
+        <v>0.4558802205251314</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1257252262954587</v>
+        <v>0.1295884230354892</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2294405039985428</v>
+        <v>0.2377048333801086</v>
       </c>
       <c r="I5" t="n">
-        <v>0.8635133481731365</v>
+        <v>0.8783269748364995</v>
       </c>
     </row>
     <row r="6">
@@ -610,19 +610,19 @@
         <v>111</v>
       </c>
       <c r="E6" t="n">
-        <v>1.138167067800468</v>
+        <v>1.137215553554008</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4558824264636133</v>
+        <v>0.4558831007021503</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1305716556397914</v>
+        <v>0.1340592719927949</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2090873558566397</v>
+        <v>0.2138600778478064</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8748905854851853</v>
+        <v>0.8869253444704601</v>
       </c>
     </row>
     <row r="7">
@@ -639,19 +639,19 @@
         <v>111</v>
       </c>
       <c r="E7" t="n">
-        <v>1.138513365893011</v>
+        <v>1.137706560586925</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4558823317012663</v>
+        <v>0.4558579720385676</v>
       </c>
       <c r="G7" t="n">
-        <v>0.131175904658576</v>
+        <v>0.1343193687919772</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2149067351916203</v>
+        <v>0.2191309382299363</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8837765102697728</v>
+        <v>0.8929689733717709</v>
       </c>
     </row>
     <row r="8">
@@ -668,19 +668,19 @@
         <v>111</v>
       </c>
       <c r="E8" t="n">
-        <v>1.137918873341424</v>
+        <v>1.13728077563392</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4558829685280913</v>
+        <v>0.4559031713540883</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1385307508743188</v>
+        <v>0.1408291341884509</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1872277877958456</v>
+        <v>0.2025227718341068</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9056509834185049</v>
+        <v>0.9142092367328025</v>
       </c>
     </row>
     <row r="9">
@@ -697,19 +697,19 @@
         <v>111</v>
       </c>
       <c r="E9" t="n">
-        <v>1.138874938032006</v>
+        <v>1.13826111825791</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4558633127907622</v>
+        <v>0.4558808322025088</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1329402464728222</v>
+        <v>0.1353228446794389</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2117223471592695</v>
+        <v>0.2124479991246679</v>
       </c>
       <c r="I9" t="n">
-        <v>0.8828978758724536</v>
+        <v>0.8935099677788353</v>
       </c>
     </row>
     <row r="10">
@@ -726,19 +726,19 @@
         <v>111</v>
       </c>
       <c r="E10" t="n">
-        <v>1.1375357039104</v>
+        <v>1.137000388450454</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4558825304072227</v>
+        <v>0.4558842820522531</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1409735932933426</v>
+        <v>0.1430123778886961</v>
       </c>
       <c r="H10" t="n">
-        <v>0.165933754925027</v>
+        <v>0.1664568728568378</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9086741572117786</v>
+        <v>0.9179121544253221</v>
       </c>
     </row>
     <row r="11">
@@ -755,19 +755,19 @@
         <v>111</v>
       </c>
       <c r="E11" t="n">
-        <v>1.134185285334304</v>
+        <v>1.133573279502847</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4558826292966553</v>
+        <v>0.4558824606103568</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1584570301154833</v>
+        <v>0.160463463870248</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1245063580959985</v>
+        <v>0.1246647451358507</v>
       </c>
       <c r="I11" t="n">
-        <v>0.9165492474924385</v>
+        <v>0.9265988014464368</v>
       </c>
     </row>
     <row r="12">
@@ -784,19 +784,19 @@
         <v>111</v>
       </c>
       <c r="E12" t="n">
-        <v>1.135341623032754</v>
+        <v>1.135095788030593</v>
       </c>
       <c r="F12" t="n">
-        <v>0.4558823019117905</v>
+        <v>0.4558822478561606</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1560096009912315</v>
+        <v>0.1569188596736608</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1408461164666977</v>
+        <v>0.1443141942799877</v>
       </c>
       <c r="I12" t="n">
-        <v>0.931100303704709</v>
+        <v>0.9362895668690131</v>
       </c>
     </row>
     <row r="13">
@@ -813,19 +813,19 @@
         <v>111</v>
       </c>
       <c r="E13" t="n">
-        <v>1.138253895751989</v>
+        <v>1.13806327037512</v>
       </c>
       <c r="F13" t="n">
-        <v>0.4558795445856036</v>
+        <v>0.4558827905558146</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1426824042023207</v>
+        <v>0.1434022503157772</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1731115421155844</v>
+        <v>0.1763477312243915</v>
       </c>
       <c r="I13" t="n">
-        <v>0.9154025231481887</v>
+        <v>0.920188573960699</v>
       </c>
     </row>
     <row r="14">
@@ -842,19 +842,19 @@
         <v>111</v>
       </c>
       <c r="E14" t="n">
-        <v>1.137603693134761</v>
+        <v>1.137277719151322</v>
       </c>
       <c r="F14" t="n">
-        <v>0.4558733279117964</v>
+        <v>0.4558810404526684</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1437575109298635</v>
+        <v>0.1448174610017762</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1810939380920929</v>
+        <v>0.1842467028154326</v>
       </c>
       <c r="I14" t="n">
-        <v>0.9262151833265422</v>
+        <v>0.9313249555254248</v>
       </c>
     </row>
     <row r="15">
@@ -871,19 +871,19 @@
         <v>111</v>
       </c>
       <c r="E15" t="n">
-        <v>1.137492876824812</v>
+        <v>1.137085861124306</v>
       </c>
       <c r="F15" t="n">
-        <v>0.4558758479290175</v>
+        <v>0.4558829401586367</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1440550301375928</v>
+        <v>0.1452840388754392</v>
       </c>
       <c r="H15" t="n">
-        <v>0.200674776166838</v>
+        <v>0.1961669919200982</v>
       </c>
       <c r="I15" t="n">
-        <v>0.928102829539098</v>
+        <v>0.9330080285341689</v>
       </c>
     </row>
     <row r="16">
@@ -900,19 +900,19 @@
         <v>111</v>
       </c>
       <c r="E16" t="n">
-        <v>1.138165265678858</v>
+        <v>1.137631515809276</v>
       </c>
       <c r="F16" t="n">
-        <v>0.45588341511634</v>
+        <v>0.4558855760120344</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1405245495532606</v>
+        <v>0.1420477598290924</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2124385106326204</v>
+        <v>0.2182465780101087</v>
       </c>
       <c r="I16" t="n">
-        <v>0.9220683944209536</v>
+        <v>0.9285701793552507</v>
       </c>
     </row>
     <row r="17">
@@ -929,19 +929,19 @@
         <v>111</v>
       </c>
       <c r="E17" t="n">
-        <v>1.139504441645677</v>
+        <v>1.139005126867447</v>
       </c>
       <c r="F17" t="n">
-        <v>0.4558823351977628</v>
+        <v>0.4558819955097421</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1359362650832752</v>
+        <v>0.1374398636605355</v>
       </c>
       <c r="H17" t="n">
-        <v>0.2241569592197553</v>
+        <v>0.220881263207821</v>
       </c>
       <c r="I17" t="n">
-        <v>0.906301291437726</v>
+        <v>0.9137200334139748</v>
       </c>
     </row>
     <row r="18">
@@ -958,19 +958,19 @@
         <v>111</v>
       </c>
       <c r="E18" t="n">
-        <v>1.139830818430035</v>
+        <v>1.139478091203545</v>
       </c>
       <c r="F18" t="n">
-        <v>0.4558817992761596</v>
+        <v>0.4558811198441085</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1357953323263658</v>
+        <v>0.1367541752163105</v>
       </c>
       <c r="H18" t="n">
-        <v>0.2201152940682789</v>
+        <v>0.2173944970758712</v>
       </c>
       <c r="I18" t="n">
-        <v>0.9034583173523117</v>
+        <v>0.9091924839029113</v>
       </c>
     </row>
   </sheetData>

--- a/倾向得分匹配_年度统计.xlsx
+++ b/倾向得分匹配_年度统计.xlsx
@@ -494,7 +494,7 @@
         <v>111</v>
       </c>
       <c r="E2" t="n">
-        <v>1.134434208527111</v>
+        <v>0.100209805982843</v>
       </c>
       <c r="F2" t="n">
         <v>0.455877884661925</v>
@@ -523,7 +523,7 @@
         <v>111</v>
       </c>
       <c r="E3" t="n">
-        <v>1.136118914357281</v>
+        <v>0.08893379370591969</v>
       </c>
       <c r="F3" t="n">
         <v>0.455882018360749</v>
@@ -552,7 +552,7 @@
         <v>111</v>
       </c>
       <c r="E4" t="n">
-        <v>1.136682560272896</v>
+        <v>0.08516121920032593</v>
       </c>
       <c r="F4" t="n">
         <v>0.4558875315652311</v>
@@ -581,7 +581,7 @@
         <v>111</v>
       </c>
       <c r="E5" t="n">
-        <v>1.137462449876291</v>
+        <v>0.07994129024594343</v>
       </c>
       <c r="F5" t="n">
         <v>0.4558802205251314</v>
@@ -610,7 +610,7 @@
         <v>111</v>
       </c>
       <c r="E6" t="n">
-        <v>1.137215553554008</v>
+        <v>0.08159380780202907</v>
       </c>
       <c r="F6" t="n">
         <v>0.4558831007021503</v>
@@ -639,7 +639,7 @@
         <v>111</v>
       </c>
       <c r="E7" t="n">
-        <v>1.137706560586925</v>
+        <v>0.07830741724524048</v>
       </c>
       <c r="F7" t="n">
         <v>0.4558579720385676</v>
@@ -668,7 +668,7 @@
         <v>111</v>
       </c>
       <c r="E8" t="n">
-        <v>1.13728077563392</v>
+        <v>0.08115726573002424</v>
       </c>
       <c r="F8" t="n">
         <v>0.4559031713540883</v>
@@ -697,7 +697,7 @@
         <v>111</v>
       </c>
       <c r="E9" t="n">
-        <v>1.13826111825791</v>
+        <v>0.07459567185070415</v>
       </c>
       <c r="F9" t="n">
         <v>0.4558808322025088</v>
@@ -726,7 +726,7 @@
         <v>111</v>
       </c>
       <c r="E10" t="n">
-        <v>1.137000388450454</v>
+        <v>0.08303394310979995</v>
       </c>
       <c r="F10" t="n">
         <v>0.4558842820522531</v>
@@ -755,7 +755,7 @@
         <v>111</v>
       </c>
       <c r="E11" t="n">
-        <v>1.133573279502847</v>
+        <v>0.1059721450650205</v>
       </c>
       <c r="F11" t="n">
         <v>0.4558824606103568</v>
@@ -784,7 +784,7 @@
         <v>111</v>
       </c>
       <c r="E12" t="n">
-        <v>1.135095788030593</v>
+        <v>0.09578174592046984</v>
       </c>
       <c r="F12" t="n">
         <v>0.4558822478561606</v>
@@ -813,7 +813,7 @@
         <v>111</v>
       </c>
       <c r="E13" t="n">
-        <v>1.13806327037512</v>
+        <v>0.07591990016127625</v>
       </c>
       <c r="F13" t="n">
         <v>0.4558827905558146</v>
@@ -842,7 +842,7 @@
         <v>111</v>
       </c>
       <c r="E14" t="n">
-        <v>1.137277719151322</v>
+        <v>0.08117772326907091</v>
       </c>
       <c r="F14" t="n">
         <v>0.4558810404526684</v>
@@ -871,7 +871,7 @@
         <v>111</v>
       </c>
       <c r="E15" t="n">
-        <v>1.137085861124306</v>
+        <v>0.08246186049309767</v>
       </c>
       <c r="F15" t="n">
         <v>0.4558829401586367</v>
@@ -900,7 +900,7 @@
         <v>111</v>
       </c>
       <c r="E16" t="n">
-        <v>1.137631515809276</v>
+        <v>0.07880970424332856</v>
       </c>
       <c r="F16" t="n">
         <v>0.4558855760120344</v>
@@ -929,7 +929,7 @@
         <v>111</v>
       </c>
       <c r="E17" t="n">
-        <v>1.139005126867447</v>
+        <v>0.0696159002697887</v>
       </c>
       <c r="F17" t="n">
         <v>0.4558819955097421</v>
@@ -958,7 +958,7 @@
         <v>111</v>
       </c>
       <c r="E18" t="n">
-        <v>1.139478091203545</v>
+        <v>0.06645027244036017</v>
       </c>
       <c r="F18" t="n">
         <v>0.4558811198441085</v>

--- a/倾向得分匹配_年度统计.xlsx
+++ b/倾向得分匹配_年度统计.xlsx
@@ -485,28 +485,28 @@
         <v>2007</v>
       </c>
       <c r="B2" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C2" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D2" t="n">
         <v>111</v>
       </c>
       <c r="E2" t="n">
-        <v>0.100209805982843</v>
+        <v>0.09977099736574302</v>
       </c>
       <c r="F2" t="n">
-        <v>0.455877884661925</v>
+        <v>0.4532026309406055</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1574095222632352</v>
+        <v>0.1577641028665121</v>
       </c>
       <c r="H2" t="n">
-        <v>0.184749521947265</v>
+        <v>0.1849570869093597</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9351544332584775</v>
+        <v>0.9323191493612728</v>
       </c>
     </row>
     <row r="3">
@@ -514,28 +514,28 @@
         <v>2008</v>
       </c>
       <c r="B3" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C3" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D3" t="n">
         <v>111</v>
       </c>
       <c r="E3" t="n">
-        <v>0.08893379370591969</v>
+        <v>0.08986594323729191</v>
       </c>
       <c r="F3" t="n">
-        <v>0.455882018360749</v>
+        <v>0.4532111167644139</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1457815837570197</v>
+        <v>0.147431075357311</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1798919439769675</v>
+        <v>0.1861553052562702</v>
       </c>
       <c r="I3" t="n">
-        <v>0.918037859851653</v>
+        <v>0.916584103080029</v>
       </c>
     </row>
     <row r="4">
@@ -543,28 +543,28 @@
         <v>2009</v>
       </c>
       <c r="B4" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C4" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D4" t="n">
         <v>111</v>
       </c>
       <c r="E4" t="n">
-        <v>0.08516121920032593</v>
+        <v>0.08842248683873799</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4558875315652311</v>
+        <v>0.4531983988853353</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1415897291679757</v>
+        <v>0.1458089683272587</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1731594211844923</v>
+        <v>0.1637789997160848</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9053366706458894</v>
+        <v>0.9065801950909514</v>
       </c>
     </row>
     <row r="5">
@@ -572,28 +572,28 @@
         <v>2010</v>
       </c>
       <c r="B5" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C5" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D5" t="n">
         <v>111</v>
       </c>
       <c r="E5" t="n">
-        <v>0.07994129024594343</v>
+        <v>0.08495809549248023</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4558802205251314</v>
+        <v>0.4532174150278165</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1295884230354892</v>
+        <v>0.1365027400908502</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2377048333801086</v>
+        <v>0.2147692381616045</v>
       </c>
       <c r="I5" t="n">
-        <v>0.8783269748364995</v>
+        <v>0.8874479820024933</v>
       </c>
     </row>
     <row r="6">
@@ -601,28 +601,28 @@
         <v>2011</v>
       </c>
       <c r="B6" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C6" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D6" t="n">
         <v>111</v>
       </c>
       <c r="E6" t="n">
-        <v>0.08159380780202907</v>
+        <v>0.08621559973992721</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4558831007021503</v>
+        <v>0.4532032286776387</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1340592719927949</v>
+        <v>0.1392761517824346</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2138600778478064</v>
+        <v>0.2056122695209196</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8869253444704601</v>
+        <v>0.8884916975437769</v>
       </c>
     </row>
     <row r="7">
@@ -630,28 +630,28 @@
         <v>2012</v>
       </c>
       <c r="B7" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C7" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D7" t="n">
         <v>111</v>
       </c>
       <c r="E7" t="n">
-        <v>0.07830741724524048</v>
+        <v>0.08292700092851069</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4558579720385676</v>
+        <v>0.4532127981979689</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1343193687919772</v>
+        <v>0.1391294271978377</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2191309382299363</v>
+        <v>0.2121393264522443</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8929689733717709</v>
+        <v>0.8952551184951452</v>
       </c>
     </row>
     <row r="8">
@@ -659,28 +659,28 @@
         <v>2013</v>
       </c>
       <c r="B8" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C8" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D8" t="n">
         <v>111</v>
       </c>
       <c r="E8" t="n">
-        <v>0.08115726573002424</v>
+        <v>0.08555601492610587</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4559031713540883</v>
+        <v>0.4532018270722092</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1408291341884509</v>
+        <v>0.1451019226228711</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2025227718341068</v>
+        <v>0.1957399317799529</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9142092367328025</v>
+        <v>0.9167325616392493</v>
       </c>
     </row>
     <row r="9">
@@ -688,28 +688,28 @@
         <v>2014</v>
       </c>
       <c r="B9" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C9" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D9" t="n">
         <v>111</v>
       </c>
       <c r="E9" t="n">
-        <v>0.07459567185070415</v>
+        <v>0.0785375304975372</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4558808322025088</v>
+        <v>0.4532018640927095</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1353228446794389</v>
+        <v>0.1406317628548858</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2124479991246679</v>
+        <v>0.2100898588125063</v>
       </c>
       <c r="I9" t="n">
-        <v>0.8935099677788353</v>
+        <v>0.9002703640511985</v>
       </c>
     </row>
     <row r="10">
@@ -717,28 +717,28 @@
         <v>2015</v>
       </c>
       <c r="B10" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C10" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D10" t="n">
         <v>111</v>
       </c>
       <c r="E10" t="n">
-        <v>0.08303394310979995</v>
+        <v>0.08743228832153915</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4558842820522531</v>
+        <v>0.4532027415755536</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1430123778886961</v>
+        <v>0.1474895639194844</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1664568728568378</v>
+        <v>0.1654568206009131</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9179121544253221</v>
+        <v>0.9197151906606726</v>
       </c>
     </row>
     <row r="11">
@@ -746,28 +746,28 @@
         <v>2016</v>
       </c>
       <c r="B11" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C11" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D11" t="n">
         <v>111</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1059721450650205</v>
+        <v>0.1095907626910743</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4558824606103568</v>
+        <v>0.4532016504037353</v>
       </c>
       <c r="G11" t="n">
-        <v>0.160463463870248</v>
+        <v>0.1637469431324952</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1246647451358507</v>
+        <v>0.125865810585801</v>
       </c>
       <c r="I11" t="n">
-        <v>0.9265988014464368</v>
+        <v>0.9285214790208434</v>
       </c>
     </row>
     <row r="12">
@@ -775,28 +775,28 @@
         <v>2017</v>
       </c>
       <c r="B12" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C12" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D12" t="n">
         <v>111</v>
       </c>
       <c r="E12" t="n">
-        <v>0.09578174592046984</v>
+        <v>0.09898431166897437</v>
       </c>
       <c r="F12" t="n">
-        <v>0.4558822478561606</v>
+        <v>0.4532042259712421</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1569188596736608</v>
+        <v>0.1599240250489777</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1443141942799877</v>
+        <v>0.1372235057552265</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9362895668690131</v>
+        <v>0.937683302546601</v>
       </c>
     </row>
     <row r="13">
@@ -804,28 +804,28 @@
         <v>2018</v>
       </c>
       <c r="B13" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C13" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D13" t="n">
         <v>111</v>
       </c>
       <c r="E13" t="n">
-        <v>0.07591990016127625</v>
+        <v>0.08283412654603084</v>
       </c>
       <c r="F13" t="n">
-        <v>0.4558827905558146</v>
+        <v>0.4532005330824418</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1434022503157772</v>
+        <v>0.149583077855426</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1763477312243915</v>
+        <v>0.1674054217607543</v>
       </c>
       <c r="I13" t="n">
-        <v>0.920188573960699</v>
+        <v>0.9275039134164113</v>
       </c>
     </row>
     <row r="14">
@@ -833,28 +833,28 @@
         <v>2019</v>
       </c>
       <c r="B14" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C14" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D14" t="n">
         <v>111</v>
       </c>
       <c r="E14" t="n">
-        <v>0.08117772326907091</v>
+        <v>0.08701618396595268</v>
       </c>
       <c r="F14" t="n">
-        <v>0.4558810404526684</v>
+        <v>0.4532020268695962</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1448174610017762</v>
+        <v>0.1504556489204788</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1842467028154326</v>
+        <v>0.1696854112019311</v>
       </c>
       <c r="I14" t="n">
-        <v>0.9313249555254248</v>
+        <v>0.9375293976677159</v>
       </c>
     </row>
     <row r="15">
@@ -862,28 +862,28 @@
         <v>2020</v>
       </c>
       <c r="B15" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C15" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D15" t="n">
         <v>111</v>
       </c>
       <c r="E15" t="n">
-        <v>0.08246186049309767</v>
+        <v>0.08724670604708662</v>
       </c>
       <c r="F15" t="n">
-        <v>0.4558829401586367</v>
+        <v>0.4532026534724997</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1452840388754392</v>
+        <v>0.1501233611942141</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1961669919200982</v>
+        <v>0.1936220731502089</v>
       </c>
       <c r="I15" t="n">
-        <v>0.9330080285341689</v>
+        <v>0.9383334181416273</v>
       </c>
     </row>
     <row r="16">
@@ -891,28 +891,28 @@
         <v>2021</v>
       </c>
       <c r="B16" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C16" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D16" t="n">
         <v>111</v>
       </c>
       <c r="E16" t="n">
-        <v>0.07880970424332856</v>
+        <v>0.08319558684488204</v>
       </c>
       <c r="F16" t="n">
-        <v>0.4558855760120344</v>
+        <v>0.4532021290654247</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1420477598290924</v>
+        <v>0.1471645958562196</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2182465780101087</v>
+        <v>0.2084953743756085</v>
       </c>
       <c r="I16" t="n">
-        <v>0.9285701793552507</v>
+        <v>0.9332107102844002</v>
       </c>
     </row>
     <row r="17">
@@ -920,28 +920,28 @@
         <v>2022</v>
       </c>
       <c r="B17" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C17" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D17" t="n">
         <v>111</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0696159002697887</v>
+        <v>0.0744398089774716</v>
       </c>
       <c r="F17" t="n">
-        <v>0.4558819955097421</v>
+        <v>0.4532005990254759</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1374398636605355</v>
+        <v>0.1434160849636614</v>
       </c>
       <c r="H17" t="n">
-        <v>0.220881263207821</v>
+        <v>0.2070529740005867</v>
       </c>
       <c r="I17" t="n">
-        <v>0.9137200334139748</v>
+        <v>0.918698850796704</v>
       </c>
     </row>
     <row r="18">
@@ -949,28 +949,28 @@
         <v>2023</v>
       </c>
       <c r="B18" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C18" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D18" t="n">
         <v>111</v>
       </c>
       <c r="E18" t="n">
-        <v>0.06645027244036017</v>
+        <v>0.07095383353658702</v>
       </c>
       <c r="F18" t="n">
-        <v>0.4558811198441085</v>
+        <v>0.4532030815817958</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1367541752163105</v>
+        <v>0.1424617180595062</v>
       </c>
       <c r="H18" t="n">
-        <v>0.2173944970758712</v>
+        <v>0.2041227207798572</v>
       </c>
       <c r="I18" t="n">
-        <v>0.9091924839029113</v>
+        <v>0.9124641724070298</v>
       </c>
     </row>
   </sheetData>
